--- a/src/test/java/Base/TestData.xlsx
+++ b/src/test/java/Base/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21BB422-0407-496A-9866-D80934F5F8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C070243-BF96-4F3F-B063-222BEA7DC8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1800" windowWidth="17280" windowHeight="9108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Valid Username</t>
   </si>
@@ -43,49 +43,67 @@
     <t>Url</t>
   </si>
   <si>
-    <t>gidwegig</t>
-  </si>
-  <si>
-    <t>2vb4b5j</t>
-  </si>
-  <si>
-    <t>vigir43g6</t>
-  </si>
-  <si>
-    <t>kho7</t>
-  </si>
-  <si>
-    <t>bjvvivi897</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jbkjbk65</t>
-  </si>
-  <si>
-    <t>lusi123</t>
-  </si>
-  <si>
-    <t>anne</t>
-  </si>
-  <si>
-    <t>gables</t>
-  </si>
-  <si>
-    <t>marc</t>
-  </si>
-  <si>
-    <t>viola</t>
-  </si>
-  <si>
-    <t>ferras</t>
-  </si>
-  <si>
-    <t>https://the-internet.herokuapp.com/login</t>
-  </si>
-  <si>
-    <t>tomsmith</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!</t>
+    <t>https://petstore.octoperf.com/actions/Catalog.action</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>InvalidLastName</t>
+  </si>
+  <si>
+    <t>InvalidFirstName</t>
+  </si>
+  <si>
+    <t>InvalidEmail</t>
+  </si>
+  <si>
+    <t>InvalidAddress1</t>
+  </si>
+  <si>
+    <t>InvalidAddress2</t>
+  </si>
+  <si>
+    <t>InvalidCity</t>
+  </si>
+  <si>
+    <t>InvalidState</t>
+  </si>
+  <si>
+    <t>InvalidZip</t>
+  </si>
+  <si>
+    <t>InvalidCountry</t>
   </si>
 </sst>
 </file>
@@ -130,10 +148,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,97 +434,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2:X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -532,14 +705,11 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{FC468E08-AE9F-4759-AABC-E46E61CF358E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>